--- a/estimations/ExtrapolationTable_v2.xlsx
+++ b/estimations/ExtrapolationTable_v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lopez/cernbox/phd/hermes-analysis/estimations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7330CD-3083-7842-AE75-F8A82EFFF01C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtrapolationTable.csv" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ExtrapolationTable.csv!$B$2:$M$16</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -103,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,22 +261,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -336,11 +342,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -377,16 +391,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.5</c:v>
@@ -395,10 +409,10 @@
                   <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,33 +424,38 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.685</c:v>
+                  <c:v>3.6849999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.674747468305833</c:v>
+                  <c:v>6.6747474683058332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.24655281280883</c:v>
+                  <c:v>3.2465528128088299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.694772228646443</c:v>
+                  <c:v>6.6947722286464435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.63731220132001</c:v>
+                  <c:v>23.637312201320007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.38691957003784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.1922058492637</c:v>
+                  <c:v>99.192205849263701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.6703147752832</c:v>
+                  <c:v>103.67031477528322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA8C-3547-B096-3D90F00DF120}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -456,16 +475,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.5</c:v>
@@ -474,10 +493,10 @@
                   <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,33 +508,38 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.917001607923764</c:v>
+                  <c:v>1.930469459513404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.255729678398157</c:v>
+                  <c:v>2.2715772564124066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.566621784688648</c:v>
+                  <c:v>3.5916790056497661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.787752832335521</c:v>
+                  <c:v>5.828414559410354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.590591091671516</c:v>
+                  <c:v>8.6509440957648334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.17471627077014</c:v>
+                  <c:v>12.260249465527494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.19703168124855</c:v>
+                  <c:v>19.331899994647976</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.56807399646511</c:v>
+                  <c:v>26.754727401515982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA8C-3547-B096-3D90F00DF120}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -562,7 +586,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -571,7 +594,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -594,7 +617,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -933,17 +962,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J22"/>
+      <selection activeCell="F6" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -959,7 +988,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G1" s="2">
         <v>0.32</v>
       </c>
@@ -973,7 +1002,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,853 +1037,853 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickTop="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>2.4</v>
       </c>
-      <c r="C3" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="D3" s="6">
-        <f>C3/SQRT(B3)</f>
-        <v>9.3597097533345899</v>
-      </c>
-      <c r="E3" s="6">
-        <f>SQRT(C3*C3-B3)/C3</f>
-        <v>0.99427612756010075</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D22" si="0">C3/SQRT(B3)</f>
+        <v>9.2951600308978009</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E22" si="1">SQRT(C3*C3-B3)/C3</f>
+        <v>0.99419612045407113</v>
+      </c>
+      <c r="F3" s="4">
         <f>D3*E3</f>
-        <v>9.306135968632022</v>
-      </c>
-      <c r="G3" s="6">
+        <v>9.2412120417183381</v>
+      </c>
+      <c r="G3" s="4">
         <v>8.57</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6">
-        <f>B3/(2*0.9385*C3)</f>
-        <v>8.8181801480719413E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L22" si="2">B3/(2*0.9385*C3)</f>
+        <v>8.8794175102113293E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
         <v>2.4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>13.1</v>
       </c>
-      <c r="D4" s="4">
-        <f>C4/SQRT(B4)</f>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>8.4560136392195258</v>
       </c>
-      <c r="E4" s="4">
-        <f>SQRT(C4*C4-B4)/C4</f>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
         <v>0.9929827798115497</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F6" si="0">D4*E4</f>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F6" si="3">D4*E4</f>
         <v>8.3966759295965829</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>6.39</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
-        <f>B4/(2*0.9385*C4)</f>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
         <v>9.7605810799269582E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
         <v>2.4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>12.4</v>
       </c>
-      <c r="D5" s="4">
-        <f>C5/SQRT(B5)</f>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>8.0041655821619955</v>
       </c>
-      <c r="E5" s="4">
-        <f>SQRT(C5*C5-B5)/C5</f>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
         <v>0.99216493543417406</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>7.9414524280301944</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10311581624761544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>7.9414524280301944</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>4.63</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+        <v>7.2139385283566897</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.9903455699794842</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>7.144292063662367</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
-        <f>B5/(2*0.9385*C5)</f>
-        <v>0.10311581624761544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C6" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="D6" s="8">
-        <f>C6/SQRT(B6)</f>
-        <v>7.121309112674501</v>
-      </c>
-      <c r="E6" s="8">
-        <f>SQRT(C6*C6-B6)/C6</f>
-        <v>0.99009151452431865</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10954047769606502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>7.0507477247637285</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="8">
-        <f>B6/(2*0.9385*C6)</f>
-        <v>0.11345922374158919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" thickTop="1">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <f>C7/SQRT(B7)</f>
         <v>2.3094010767585034</v>
       </c>
-      <c r="E7" s="6">
-        <f>SQRT(C7*C7-B7)/C7</f>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
         <v>0.90138781886599728</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7:F14" si="1">D7*E7</f>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F14" si="4">D7*E7</f>
         <v>2.0816659994661331</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f>$G$3*$F7/$F$3</f>
-        <v>1.917001607923764</v>
-      </c>
-      <c r="H7" s="6">
+        <v>1.930469459513404</v>
+      </c>
+      <c r="H7" s="4">
         <f>$H$4*$F7/$F$4</f>
         <v>1.5841799597984096</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <f>$I$5*$F7/$F$5</f>
         <v>1.2136462019856038</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <f>$J$6*$F7/$F$6</f>
-        <v>0.70857710327256618</v>
-      </c>
-      <c r="K7" s="6" t="s">
+        <v>0.69929929434570581</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="6">
-        <f>B7/(2*0.9385*C7)</f>
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
         <v>0.39957378795950987</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <f>C8/SQRT(B8)</f>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
         <v>2.6457513110645903</v>
       </c>
-      <c r="E8" s="4">
-        <f>SQRT(C8*C8-B8)/C8</f>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
         <v>0.92582009977255153</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="F8" s="3">
+        <f t="shared" si="4"/>
         <v>2.4494897427831779</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>$G$3*$F8/$F$3</f>
-        <v>2.2557296783981573</v>
-      </c>
-      <c r="H8" s="4">
+        <v>2.2715772564124066</v>
+      </c>
+      <c r="H8" s="3">
         <f>$H$4*$F8/$F$4</f>
         <v>1.8640995064741668</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>$I$5*$F8/$F$5</f>
         <v>1.4280936153513144</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>$J$6*$F8/$F$6</f>
-        <v>0.83378041764735322</v>
-      </c>
-      <c r="K8" s="4" t="s">
+        <v>0.82286324947163481</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="4">
-        <f>B8/(2*0.9385*C8)</f>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
         <v>0.53276505061267987</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <f>C9/SQRT(B9)</f>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E9" s="4">
-        <f>SQRT(C9*C9-B9)/C9</f>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
         <v>0.96824583655185426</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
         <v>3.872983346207417</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>$G$3*$F9/$F$3</f>
-        <v>3.5666217846886483</v>
-      </c>
-      <c r="H9" s="4">
+        <v>3.5916790056497661</v>
+      </c>
+      <c r="H9" s="3">
         <f>$H$4*$F9/$F$4</f>
         <v>2.9474001128270797</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>$I$5*$F9/$F$5</f>
         <v>2.2580142682272779</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f>$J$6*$F9/$F$6</f>
-        <v>1.3183225941060432</v>
-      </c>
-      <c r="K9" s="4" t="s">
+        <v>1.3010610355888554</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4">
-        <f>B9/(2*0.9385*C9)</f>
+      <c r="L9" s="3">
+        <f t="shared" si="2"/>
         <v>0.13319126265316994</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <f>C10/SQRT(B10)</f>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
         <v>6.3639610306789276</v>
       </c>
-      <c r="E10" s="4">
-        <f>SQRT(C10*C10-B10)/C10</f>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>0.9875771574795098</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
         <v>6.2849025449882667</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>$G$3*$F10/$F$3</f>
-        <v>5.7877528323355207</v>
-      </c>
-      <c r="H10" s="4">
+        <v>5.828414559410354</v>
+      </c>
+      <c r="H10" s="3">
         <f>$H$4*$F10/$F$4</f>
         <v>4.7829078553475304</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f>$I$5*$F10/$F$5</f>
         <v>3.6642036261008544</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f>$J$6*$F10/$F$6</f>
-        <v>2.1393143956908909</v>
-      </c>
-      <c r="K10" s="4" t="s">
+        <v>2.1113031177282906</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="4">
-        <f>B10/(2*0.9385*C10)</f>
+      <c r="L10" s="3">
+        <f t="shared" si="2"/>
         <v>0.1183922334694844</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>32.5</v>
       </c>
-      <c r="D11" s="4">
-        <f>C11/SQRT(B11)</f>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
         <v>9.3819418743314191</v>
       </c>
-      <c r="E11" s="4">
-        <f>SQRT(C11*C11-B11)/C11</f>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
         <v>0.99430330043424775</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>9.3284957701300026</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:G14" si="5">$G$3*$F11/$F$3</f>
+        <v>8.6509440957648334</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H14" si="6">$H$4*$F11/$F$4</f>
+        <v>7.0991292829369232</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ref="I11:I14" si="7">$I$5*$F11/$F$5</f>
+        <v>5.4386695389945228</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" ref="J11:J14" si="8">$J$6*$F11/$F$6</f>
+        <v>3.1337450441289882</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19671324945698948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>13.258252147247765</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
+        <v>0.99715149857537255</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="4"/>
+        <v>13.22048599711826</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="5"/>
+        <v>12.260249465527494</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
+        <v>10.060993925443119</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="7"/>
+        <v>7.7077651375971712</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4411911089786198</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11365654413070501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>20.869967789998036</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99885138115369954</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="4"/>
+        <v>20.845996151672761</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="5"/>
+        <v>19.331899994647976</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="6"/>
+        <v>15.864124866325382</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="7"/>
+        <v>12.153565491569033</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="8"/>
+        <v>7.0028479124588907</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17124590912550425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5">
+        <v>150</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>28.867513459481287</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99939981989191895</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>28.850187752133145</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>26.754727401515982</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>21.955438233161395</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="7"/>
+        <v>16.820143481676546</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="8"/>
+        <v>9.6917161264016034</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5897709110282364E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3094010767585034</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90138781886599728</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:F22" si="9">D15*E15</f>
+        <v>2.0816659994661331</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:J22" si="10">0.5*0.93 + $C15*(1 - G$1) + 0.5*$C15*(SQRT(1+ $B15*$B15/$C15/$C15) - 1)</f>
+        <v>3.6849999999999996</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="10"/>
+        <v>2.8449999999999998</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="10"/>
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="10"/>
+        <v>1.2050000000000003</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>0.39957378795950987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6457513110645903</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92582009977255153</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6747474683058332</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="10"/>
+        <v>5.2047474683058326</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="10"/>
+        <v>3.664747468305833</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="10"/>
+        <v>2.3347474683058334</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.53276505061267987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96824583655185426</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="9"/>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2465528128088299</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="10"/>
+        <v>2.40655281280883</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5265528128088304</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="10"/>
+        <v>0.76655281280883059</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13319126265316994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3639610306789276</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9875771574795098</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2849025449882667</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6947722286464435</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="10"/>
+        <v>4.8047722286464438</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="10"/>
+        <v>2.8247722286464438</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1147722286464448</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1183922334694844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3819418743314191</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99430330043424775</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="9"/>
         <v>9.3284957701300026</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" ref="G11:G14" si="2">$G$3*$F11/$F$3</f>
-        <v>8.5905910916715165</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" ref="H11:H14" si="3">$H$4*$F11/$F$4</f>
-        <v>7.0991292829369232</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" ref="I11:I14" si="4">$I$5*$F11/$F$5</f>
-        <v>5.4386695389945228</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" ref="J11:J14" si="5">$J$6*$F11/$F$6</f>
-        <v>3.1753213591346077</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="G19" s="3">
+        <f t="shared" si="10"/>
+        <v>23.637312201320007</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="10"/>
+        <v>16.812312201320005</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="10"/>
+        <v>9.6623122013200078</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="10"/>
+        <v>3.4873122013200097</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="4">
-        <f>B11/(2*0.9385*C11)</f>
+      <c r="L19" s="3">
+        <f t="shared" si="2"/>
         <v>0.19671324945698948</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C20" s="3">
         <v>37.5</v>
       </c>
-      <c r="D12" s="4">
-        <f>C12/SQRT(B12)</f>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
         <v>13.258252147247765</v>
       </c>
-      <c r="E12" s="4">
-        <f>SQRT(C12*C12-B12)/C12</f>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
         <v>0.99715149857537255</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F20" s="3">
+        <f t="shared" si="9"/>
+        <v>13.22048599711826</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="10"/>
+        <v>26.38691957003784</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="10"/>
+        <v>18.511919570037843</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="10"/>
+        <v>10.261919570037843</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1369195700378447</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11365654413070501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3">
+        <v>140</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>20.869967789998036</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>13.22048599711826</v>
-      </c>
-      <c r="G12" s="4">
+        <v>0.99885138115369954</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="9"/>
+        <v>20.845996151672761</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="10"/>
+        <v>99.192205849263701</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="10"/>
+        <v>69.792205849263709</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="10"/>
+        <v>38.992205849263719</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="10"/>
+        <v>12.392205849263721</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="2"/>
-        <v>12.174716270770139</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="3"/>
-        <v>10.060993925443119</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="4"/>
-        <v>7.7077651375971712</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="5"/>
-        <v>4.500113694558129</v>
-      </c>
-      <c r="K12" s="4" t="s">
+        <v>0.17124590912550425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>150</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>28.867513459481287</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99939981989191895</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="9"/>
+        <v>28.850187752133145</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="10"/>
+        <v>103.67031477528322</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="10"/>
+        <v>72.170314775283231</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="10"/>
+        <v>39.170314775283224</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="10"/>
+        <v>10.670314775283229</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="4">
-        <f>B12/(2*0.9385*C12)</f>
-        <v>0.11365654413070501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4">
-        <v>140</v>
-      </c>
-      <c r="D13" s="4">
-        <f>C13/SQRT(B13)</f>
-        <v>20.869967789998036</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SQRT(C13*C13-B13)/C13</f>
-        <v>0.99885138115369954</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>20.845996151672761</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
-        <v>19.197031681248546</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="3"/>
-        <v>15.864124866325382</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>12.153565491569033</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="5"/>
-        <v>7.0957567504928925</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="4">
-        <f>B13/(2*0.9385*C13)</f>
-        <v>0.17124590912550425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8">
-        <v>150</v>
-      </c>
-      <c r="D14" s="8">
-        <f>C14/SQRT(B14)</f>
-        <v>28.867513459481287</v>
-      </c>
-      <c r="E14" s="8">
-        <f>SQRT(C14*C14-B14)/C14</f>
-        <v>0.99939981989191895</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>28.850187752133145</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="2"/>
-        <v>26.56807399646511</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="3"/>
-        <v>21.955438233161395</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="4"/>
-        <v>16.820143481676546</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="5"/>
-        <v>9.8202989679991433</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="8">
-        <f>B14/(2*0.9385*C14)</f>
         <v>9.5897709110282364E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" thickTop="1">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6">
-        <f>C15/SQRT(B15)</f>
-        <v>2.3094010767585034</v>
-      </c>
-      <c r="E15" s="6">
-        <f>SQRT(C15*C15-B15)/C15</f>
-        <v>0.90138781886599728</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F22" si="6">D15*E15</f>
-        <v>2.0816659994661331</v>
-      </c>
-      <c r="G15" s="6">
-        <f>0.5*0.93 + $C15*(1 - G$1) + 0.5*$C15*(SQRT(1+ $B15*$B15/$C15/$C15) - 1)</f>
-        <v>3.6849999999999996</v>
-      </c>
-      <c r="H15" s="6">
-        <f>0.5*0.93 + $C15*(1 - H$1) + 0.5*$C15*(SQRT(1+ $B15*$B15/$C15/$C15) - 1)</f>
-        <v>2.8449999999999998</v>
-      </c>
-      <c r="I15" s="6">
-        <f>0.5*0.93 + $C15*(1 - I$1) + 0.5*$C15*(SQRT(1+ $B15*$B15/$C15/$C15) - 1)</f>
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="J15" s="6">
-        <f>0.5*0.93 + $C15*(1 - J$1) + 0.5*$C15*(SQRT(1+ $B15*$B15/$C15/$C15) - 1)</f>
-        <v>1.2050000000000003</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="6">
-        <f>B15/(2*0.9385*C15)</f>
-        <v>0.39957378795950987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4">
-        <f>C16/SQRT(B16)</f>
-        <v>2.6457513110645903</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SQRT(C16*C16-B16)/C16</f>
-        <v>0.92582009977255153</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="G16" s="4">
-        <f>0.5*0.93 + $C16*(1 - G$1) + 0.5*$C16*(SQRT(1+ $B16*$B16/$C16/$C16) - 1)</f>
-        <v>6.6747474683058332</v>
-      </c>
-      <c r="H16" s="4">
-        <f>0.5*0.93 + $C16*(1 - H$1) + 0.5*$C16*(SQRT(1+ $B16*$B16/$C16/$C16) - 1)</f>
-        <v>5.2047474683058326</v>
-      </c>
-      <c r="I16" s="4">
-        <f>0.5*0.93 + $C16*(1 - I$1) + 0.5*$C16*(SQRT(1+ $B16*$B16/$C16/$C16) - 1)</f>
-        <v>3.664747468305833</v>
-      </c>
-      <c r="J16" s="4">
-        <f>0.5*0.93 + $C16*(1 - J$1) + 0.5*$C16*(SQRT(1+ $B16*$B16/$C16/$C16) - 1)</f>
-        <v>2.3347474683058334</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="4">
-        <f>B16/(2*0.9385*C16)</f>
-        <v>0.53276505061267987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <f>C17/SQRT(B17)</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SQRT(C17*C17-B17)/C17</f>
-        <v>0.96824583655185426</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="6"/>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="G17" s="4">
-        <f>0.5*0.93 + $C17*(1 - G$1) + 0.5*$C17*(SQRT(1+ $B17*$B17/$C17/$C17) - 1)</f>
-        <v>3.2465528128088299</v>
-      </c>
-      <c r="H17" s="4">
-        <f>0.5*0.93 + $C17*(1 - H$1) + 0.5*$C17*(SQRT(1+ $B17*$B17/$C17/$C17) - 1)</f>
-        <v>2.40655281280883</v>
-      </c>
-      <c r="I17" s="4">
-        <f>0.5*0.93 + $C17*(1 - I$1) + 0.5*$C17*(SQRT(1+ $B17*$B17/$C17/$C17) - 1)</f>
-        <v>1.5265528128088304</v>
-      </c>
-      <c r="J17" s="4">
-        <f>0.5*0.93 + $C17*(1 - J$1) + 0.5*$C17*(SQRT(1+ $B17*$B17/$C17/$C17) - 1)</f>
-        <v>0.76655281280883059</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="4">
-        <f>B17/(2*0.9385*C17)</f>
-        <v>0.13319126265316994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <f>C18/SQRT(B18)</f>
-        <v>6.3639610306789276</v>
-      </c>
-      <c r="E18" s="4">
-        <f>SQRT(C18*C18-B18)/C18</f>
-        <v>0.9875771574795098</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>6.2849025449882667</v>
-      </c>
-      <c r="G18" s="4">
-        <f>0.5*0.93 + $C18*(1 - G$1) + 0.5*$C18*(SQRT(1+ $B18*$B18/$C18/$C18) - 1)</f>
-        <v>6.6947722286464435</v>
-      </c>
-      <c r="H18" s="4">
-        <f>0.5*0.93 + $C18*(1 - H$1) + 0.5*$C18*(SQRT(1+ $B18*$B18/$C18/$C18) - 1)</f>
-        <v>4.8047722286464438</v>
-      </c>
-      <c r="I18" s="4">
-        <f>0.5*0.93 + $C18*(1 - I$1) + 0.5*$C18*(SQRT(1+ $B18*$B18/$C18/$C18) - 1)</f>
-        <v>2.8247722286464438</v>
-      </c>
-      <c r="J18" s="4">
-        <f>0.5*0.93 + $C18*(1 - J$1) + 0.5*$C18*(SQRT(1+ $B18*$B18/$C18/$C18) - 1)</f>
-        <v>1.1147722286464448</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="4">
-        <f>B18/(2*0.9385*C18)</f>
-        <v>0.1183922334694844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="D19" s="4">
-        <f>C19/SQRT(B19)</f>
-        <v>9.3819418743314191</v>
-      </c>
-      <c r="E19" s="4">
-        <f>SQRT(C19*C19-B19)/C19</f>
-        <v>0.99430330043424775</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="6"/>
-        <v>9.3284957701300026</v>
-      </c>
-      <c r="G19" s="4">
-        <f>0.5*0.93 + $C19*(1 - G$1) + 0.5*$C19*(SQRT(1+ $B19*$B19/$C19/$C19) - 1)</f>
-        <v>23.637312201320007</v>
-      </c>
-      <c r="H19" s="4">
-        <f>0.5*0.93 + $C19*(1 - H$1) + 0.5*$C19*(SQRT(1+ $B19*$B19/$C19/$C19) - 1)</f>
-        <v>16.812312201320005</v>
-      </c>
-      <c r="I19" s="4">
-        <f>0.5*0.93 + $C19*(1 - I$1) + 0.5*$C19*(SQRT(1+ $B19*$B19/$C19/$C19) - 1)</f>
-        <v>9.6623122013200078</v>
-      </c>
-      <c r="J19" s="4">
-        <f>0.5*0.93 + $C19*(1 - J$1) + 0.5*$C19*(SQRT(1+ $B19*$B19/$C19/$C19) - 1)</f>
-        <v>3.4873122013200097</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="4">
-        <f>B19/(2*0.9385*C19)</f>
-        <v>0.19671324945698948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4">
-        <v>37.5</v>
-      </c>
-      <c r="D20" s="4">
-        <f>C20/SQRT(B20)</f>
-        <v>13.258252147247765</v>
-      </c>
-      <c r="E20" s="4">
-        <f>SQRT(C20*C20-B20)/C20</f>
-        <v>0.99715149857537255</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="6"/>
-        <v>13.22048599711826</v>
-      </c>
-      <c r="G20" s="4">
-        <f>0.5*0.93 + $C20*(1 - G$1) + 0.5*$C20*(SQRT(1+ $B20*$B20/$C20/$C20) - 1)</f>
-        <v>26.38691957003784</v>
-      </c>
-      <c r="H20" s="4">
-        <f>0.5*0.93 + $C20*(1 - H$1) + 0.5*$C20*(SQRT(1+ $B20*$B20/$C20/$C20) - 1)</f>
-        <v>18.511919570037843</v>
-      </c>
-      <c r="I20" s="4">
-        <f>0.5*0.93 + $C20*(1 - I$1) + 0.5*$C20*(SQRT(1+ $B20*$B20/$C20/$C20) - 1)</f>
-        <v>10.261919570037843</v>
-      </c>
-      <c r="J20" s="4">
-        <f>0.5*0.93 + $C20*(1 - J$1) + 0.5*$C20*(SQRT(1+ $B20*$B20/$C20/$C20) - 1)</f>
-        <v>3.1369195700378447</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="4">
-        <f>B20/(2*0.9385*C20)</f>
-        <v>0.11365654413070501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4">
-        <v>140</v>
-      </c>
-      <c r="D21" s="4">
-        <f>C21/SQRT(B21)</f>
-        <v>20.869967789998036</v>
-      </c>
-      <c r="E21" s="4">
-        <f>SQRT(C21*C21-B21)/C21</f>
-        <v>0.99885138115369954</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>20.845996151672761</v>
-      </c>
-      <c r="G21" s="4">
-        <f>0.5*0.93 + $C21*(1 - G$1) + 0.5*$C21*(SQRT(1+ $B21*$B21/$C21/$C21) - 1)</f>
-        <v>99.192205849263701</v>
-      </c>
-      <c r="H21" s="4">
-        <f>0.5*0.93 + $C21*(1 - H$1) + 0.5*$C21*(SQRT(1+ $B21*$B21/$C21/$C21) - 1)</f>
-        <v>69.792205849263709</v>
-      </c>
-      <c r="I21" s="4">
-        <f>0.5*0.93 + $C21*(1 - I$1) + 0.5*$C21*(SQRT(1+ $B21*$B21/$C21/$C21) - 1)</f>
-        <v>38.992205849263719</v>
-      </c>
-      <c r="J21" s="4">
-        <f>0.5*0.93 + $C21*(1 - J$1) + 0.5*$C21*(SQRT(1+ $B21*$B21/$C21/$C21) - 1)</f>
-        <v>12.392205849263721</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="4">
-        <f>B21/(2*0.9385*C21)</f>
-        <v>0.17124590912550425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8">
-        <v>150</v>
-      </c>
-      <c r="D22" s="8">
-        <f>C22/SQRT(B22)</f>
-        <v>28.867513459481287</v>
-      </c>
-      <c r="E22" s="8">
-        <f>SQRT(C22*C22-B22)/C22</f>
-        <v>0.99939981989191895</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="6"/>
-        <v>28.850187752133145</v>
-      </c>
-      <c r="G22" s="8">
-        <f>0.5*0.93 + $C22*(1 - G$1) + 0.5*$C22*(SQRT(1+ $B22*$B22/$C22/$C22) - 1)</f>
-        <v>103.67031477528322</v>
-      </c>
-      <c r="H22" s="8">
-        <f>0.5*0.93 + $C22*(1 - H$1) + 0.5*$C22*(SQRT(1+ $B22*$B22/$C22/$C22) - 1)</f>
-        <v>72.170314775283231</v>
-      </c>
-      <c r="I22" s="8">
-        <f>0.5*0.93 + $C22*(1 - I$1) + 0.5*$C22*(SQRT(1+ $B22*$B22/$C22/$C22) - 1)</f>
-        <v>39.170314775283224</v>
-      </c>
-      <c r="J22" s="8">
-        <f>0.5*0.93 + $C22*(1 - J$1) + 0.5*$C22*(SQRT(1+ $B22*$B22/$C22/$C22) - 1)</f>
-        <v>10.670314775283229</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="8">
-        <f>B22/(2*0.9385*C22)</f>
-        <v>9.5897709110282364E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" thickTop="1"/>
+    <row r="23" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="B6:L13">
     <sortCondition ref="F6:F13"/>
